--- a/ProductMatch/BEN/ProductMatch_2015.xlsx
+++ b/ProductMatch/BEN/ProductMatch_2015.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fraol.tesfaye\Desktop\ProductMatch\BEN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725C71A9-00AF-4333-92F8-BEDB746DAC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F527B4-AFBC-486D-8A73-AEE814836531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1C8717D9-281C-4B3B-91B0-A870D7B0898D}"/>
   </bookViews>
@@ -228,8 +228,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -257,8 +265,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,23 +584,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5904D5-A78A-49C8-83CF-0F933CCFB712}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:C27"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="187.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -895,5 +906,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>